--- a/data/trans_bre/P1806_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Edad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.451742416333693</v>
+        <v>-1.385754418894059</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.7775599967437328</v>
+        <v>-0.7792516714680776</v>
       </c>
     </row>
     <row r="6">
@@ -580,9 +580,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.08984790684324</v>
-      </c>
-      <c r="D6" s="6" t="inlineStr"/>
+        <v>4.92788977734053</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>12.11645060483799</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -610,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.193124393442575</v>
+        <v>-2.075484389604678</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7273120895003239</v>
+        <v>-0.6689036513394144</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.115325554844314</v>
+        <v>2.426467978197582</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.373821746697601</v>
+        <v>5.118192832586127</v>
       </c>
     </row>
     <row r="10">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8173245862979776</v>
+        <v>-0.7057058068794324</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.347407902769594</v>
+        <v>-0.2848798212761401</v>
       </c>
     </row>
     <row r="12">
@@ -670,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.264650216071971</v>
+        <v>2.312139602469083</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.043407623995715</v>
+        <v>2.138094440486487</v>
       </c>
     </row>
     <row r="13">
@@ -688,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.854885944405009</v>
+        <v>3.85488594440501</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.442315509996694</v>
+        <v>2.442315509996695</v>
       </c>
     </row>
     <row r="14">
@@ -702,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.331366583468306</v>
+        <v>2.081683486556427</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.8864121888777847</v>
+        <v>0.8166978827258877</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.517072995513423</v>
+        <v>5.408666571933617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.138520572056055</v>
+        <v>5.790475290158621</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.583270611452786</v>
+        <v>4.583270611452785</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>2.819965658724481</v>
+        <v>2.81996565872448</v>
       </c>
     </row>
     <row r="17">
@@ -748,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.679325512149982</v>
+        <v>2.716549627780766</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.9738887693353627</v>
+        <v>0.9103152219389774</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.44102175046594</v>
+        <v>6.344142428095746</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7.023359946393579</v>
+        <v>6.381522454719324</v>
       </c>
     </row>
     <row r="19">
@@ -780,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>2.285148239879255</v>
+        <v>2.285148239879253</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.4395912846094682</v>
+        <v>0.439591284609468</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.07888180963463412</v>
+        <v>-0.3452164488818038</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01649361902716997</v>
+        <v>-0.0563571895263161</v>
       </c>
     </row>
     <row r="21">
@@ -808,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.958298998440702</v>
+        <v>5.016110632744596</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.286710144491658</v>
+        <v>1.331115224361878</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +828,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>5.244472135037877</v>
+        <v>5.244472135037875</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1.166092016810539</v>
@@ -840,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.131994423633583</v>
+        <v>2.199024201708637</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.2913462406705288</v>
+        <v>0.3351926077720576</v>
       </c>
     </row>
     <row r="24">
@@ -854,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.297328712181303</v>
+        <v>7.922922755311723</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>2.655827766032379</v>
+        <v>2.538925278985457</v>
       </c>
     </row>
     <row r="25">
@@ -872,7 +874,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>2.879737068565238</v>
+        <v>2.879737068565237</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1.241541697206047</v>
@@ -886,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.117638968035745</v>
+        <v>2.085835668933282</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7610112501555156</v>
+        <v>0.7145298228348648</v>
       </c>
     </row>
     <row r="27">
@@ -900,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.647284878524836</v>
+        <v>3.641373667667811</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.844253117497517</v>
+        <v>1.823189200097533</v>
       </c>
     </row>
     <row r="28">
